--- a/一研为定/学科评估.xlsx
+++ b/一研为定/学科评估.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GITHUB\MyNotes\一研为定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A007277-F16E-4E1A-86C5-66CD39F70F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A2AE71-BCF7-41D7-9A91-9AF107A4173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{37BCE497-CDEA-4D07-8C24-EFE8481C969A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{37BCE497-CDEA-4D07-8C24-EFE8481C969A}"/>
   </bookViews>
   <sheets>
     <sheet name="origin" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="263">
   <si>
     <t>排名</t>
   </si>
@@ -1396,12 +1396,48 @@
     <t>380？</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>西安电子科技大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥工业大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京航空航天大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆邮电大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉理工大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>360左右</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暨南大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,13 +1520,26 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -1665,15 +1714,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1752,10 +1804,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3734,14 +3799,14 @@
       <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3763,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3774,7 +3839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3785,7 +3850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3796,7 +3861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3807,7 +3872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3818,7 +3883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3829,7 +3894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3840,7 +3905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3851,7 +3916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3862,7 +3927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3873,7 +3938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3884,7 +3949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3895,7 +3960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3906,7 +3971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3917,7 +3982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3928,7 +3993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3939,7 +4004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3950,7 +4015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3961,7 +4026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3972,7 +4037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3983,7 +4048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3994,7 +4059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4005,7 +4070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4016,7 +4081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4027,7 +4092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4038,7 +4103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4049,7 +4114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4060,7 +4125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4071,7 +4136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4082,7 +4147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4093,7 +4158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4104,7 +4169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4115,7 +4180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4126,7 +4191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4137,7 +4202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4148,7 +4213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4159,7 +4224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4170,7 +4235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4181,7 +4246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4192,7 +4257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4203,7 +4268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4214,7 +4279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4225,7 +4290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4236,7 +4301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -4247,7 +4312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -4258,7 +4323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -4269,7 +4334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -4280,7 +4345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -4291,7 +4356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -4302,7 +4367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -4313,7 +4378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -4324,7 +4389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -4335,7 +4400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -4346,7 +4411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -4357,7 +4422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -4368,7 +4433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -4379,7 +4444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -4390,7 +4455,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -4401,7 +4466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -4412,7 +4477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -4423,7 +4488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -4434,7 +4499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -4445,7 +4510,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -4456,7 +4521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -4467,7 +4532,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -4478,7 +4543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -4489,7 +4554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -4500,7 +4565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -4511,7 +4576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -4522,7 +4587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -4533,7 +4598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -4544,7 +4609,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -4555,7 +4620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -4566,7 +4631,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -4577,7 +4642,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -4588,7 +4653,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -4599,7 +4664,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -4610,7 +4675,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -4621,7 +4686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -4632,7 +4697,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -4643,7 +4708,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -4654,7 +4719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -4665,7 +4730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -4676,7 +4741,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -4687,7 +4752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -4698,7 +4763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -4709,7 +4774,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -4720,7 +4785,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -4731,7 +4796,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -4742,7 +4807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -4753,7 +4818,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -4764,7 +4829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -4775,7 +4840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -4786,7 +4851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -4797,7 +4862,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -4808,7 +4873,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -4819,7 +4884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -4830,7 +4895,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -4841,7 +4906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -4852,7 +4917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -4863,7 +4928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -4874,7 +4939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -4885,7 +4950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -4896,7 +4961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -4907,7 +4972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -4918,7 +4983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -4929,7 +4994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -4940,7 +5005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -4951,7 +5016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -4962,7 +5027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -4973,7 +5038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -4984,7 +5049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -4995,7 +5060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -5006,7 +5071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -5017,7 +5082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -5028,7 +5093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -5039,7 +5104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -5050,7 +5115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -5061,7 +5126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -5072,7 +5137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -5083,7 +5148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -5094,7 +5159,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -5105,7 +5170,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -5116,7 +5181,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -5127,7 +5192,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -5138,7 +5203,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -5149,7 +5214,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -5160,7 +5225,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -5171,7 +5236,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -5182,7 +5247,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -5193,7 +5258,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -5204,7 +5269,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -5215,7 +5280,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -5226,7 +5291,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -5237,7 +5302,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -5248,7 +5313,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -5259,7 +5324,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -5270,7 +5335,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -5281,7 +5346,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -5292,7 +5357,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -5303,7 +5368,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -5314,7 +5379,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -5325,7 +5390,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -5336,7 +5401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -5347,7 +5412,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -5358,7 +5423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -5369,7 +5434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -5380,7 +5445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -5391,7 +5456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -5402,7 +5467,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -5413,7 +5478,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -5424,7 +5489,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -5435,7 +5500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -5446,7 +5511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -5457,7 +5522,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -5468,7 +5533,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -5479,7 +5544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -5490,7 +5555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -5501,7 +5566,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -5512,7 +5577,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -5523,7 +5588,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -5534,7 +5599,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -5545,7 +5610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -5556,7 +5621,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -5567,7 +5632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -5578,7 +5643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -5589,7 +5654,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -5600,7 +5665,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
         <v>180</v>
       </c>
@@ -5614,7 +5679,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="13">
         <v>5</v>
       </c>
@@ -5628,7 +5693,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="13">
         <v>6</v>
       </c>
@@ -5642,7 +5707,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="13">
         <v>8</v>
       </c>
@@ -5656,7 +5721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="13">
         <v>9</v>
       </c>
@@ -5670,7 +5735,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="13">
         <v>10</v>
       </c>
@@ -5684,7 +5749,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="13">
         <v>11</v>
       </c>
@@ -5698,7 +5763,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="13">
         <v>12</v>
       </c>
@@ -5712,7 +5777,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="13">
         <v>13</v>
       </c>
@@ -5726,7 +5791,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="13">
         <v>14</v>
       </c>
@@ -5740,7 +5805,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="13">
         <v>15</v>
       </c>
@@ -5754,7 +5819,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="13">
         <v>16</v>
       </c>
@@ -5768,7 +5833,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="13">
         <v>17</v>
       </c>
@@ -5782,7 +5847,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="13">
         <v>18</v>
       </c>
@@ -5796,7 +5861,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="13">
         <v>19</v>
       </c>
@@ -5810,7 +5875,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="13">
         <v>20</v>
       </c>
@@ -5824,7 +5889,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="13">
         <v>21</v>
       </c>
@@ -5838,7 +5903,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="13">
         <v>22</v>
       </c>
@@ -5852,7 +5917,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="13">
         <v>24</v>
       </c>
@@ -5866,7 +5931,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="13">
         <v>25</v>
       </c>
@@ -5880,7 +5945,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="13">
         <v>26</v>
       </c>
@@ -5894,7 +5959,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="13">
         <v>27</v>
       </c>
@@ -5908,7 +5973,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="13">
         <v>28</v>
       </c>
@@ -5922,7 +5987,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="13">
         <v>29</v>
       </c>
@@ -5936,7 +6001,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="13">
         <v>30</v>
       </c>
@@ -5950,7 +6015,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="13">
         <v>31</v>
       </c>
@@ -5964,7 +6029,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="13">
         <v>33</v>
       </c>
@@ -5978,7 +6043,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="13">
         <v>34</v>
       </c>
@@ -5992,7 +6057,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="13">
         <v>35</v>
       </c>
@@ -6006,7 +6071,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="13">
         <v>36</v>
       </c>
@@ -6020,7 +6085,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="13">
         <v>37</v>
       </c>
@@ -6034,7 +6099,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="13">
         <v>38</v>
       </c>
@@ -6048,7 +6113,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="13">
         <v>39</v>
       </c>
@@ -6062,7 +6127,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="13">
         <v>40</v>
       </c>
@@ -6076,7 +6141,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="13">
         <v>41</v>
       </c>
@@ -6090,7 +6155,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="13">
         <v>42</v>
       </c>
@@ -6104,7 +6169,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="13">
         <v>43</v>
       </c>
@@ -6118,7 +6183,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="13">
         <v>44</v>
       </c>
@@ -6132,7 +6197,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="13">
         <v>45</v>
       </c>
@@ -6146,7 +6211,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="13">
         <v>46</v>
       </c>
@@ -6160,7 +6225,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="13">
         <v>49</v>
       </c>
@@ -6174,7 +6239,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="13">
         <v>50</v>
       </c>
@@ -6188,7 +6253,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="13">
         <v>51</v>
       </c>
@@ -6202,7 +6267,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="13">
         <v>52</v>
       </c>
@@ -6216,7 +6281,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="13">
         <v>53</v>
       </c>
@@ -6230,7 +6295,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="13">
         <v>54</v>
       </c>
@@ -6244,7 +6309,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="13">
         <v>55</v>
       </c>
@@ -6258,7 +6323,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="13">
         <v>56</v>
       </c>
@@ -6272,7 +6337,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="13">
         <v>57</v>
       </c>
@@ -6286,7 +6351,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="13">
         <v>58</v>
       </c>
@@ -6300,7 +6365,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="13">
         <v>59</v>
       </c>
@@ -6314,7 +6379,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="13">
         <v>60</v>
       </c>
@@ -6328,7 +6393,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="13">
         <v>61</v>
       </c>
@@ -6342,7 +6407,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="13">
         <v>62</v>
       </c>
@@ -6356,7 +6421,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="13">
         <v>63</v>
       </c>
@@ -6370,7 +6435,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="13">
         <v>64</v>
       </c>
@@ -6384,7 +6449,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="13">
         <v>65</v>
       </c>
@@ -6398,7 +6463,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="13">
         <v>66</v>
       </c>
@@ -6412,7 +6477,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="13">
         <v>67</v>
       </c>
@@ -6426,7 +6491,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="13">
         <v>68</v>
       </c>
@@ -6440,7 +6505,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="13">
         <v>69</v>
       </c>
@@ -6502,13 +6567,13 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>195</v>
       </c>
@@ -6516,7 +6581,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -6524,7 +6589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -6532,7 +6597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -6540,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -6548,7 +6613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -6556,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -6564,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>221</v>
       </c>
@@ -6572,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -6580,7 +6645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -6588,7 +6653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -6596,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -6604,7 +6669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -6612,7 +6677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>223</v>
       </c>
@@ -6620,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>225</v>
       </c>
@@ -6628,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -6636,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -6644,7 +6709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -6652,7 +6717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -6660,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -6668,7 +6733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -6676,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>233</v>
       </c>
@@ -6684,7 +6749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>229</v>
       </c>
@@ -6704,19 +6769,19 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="8" width="8.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>244</v>
       </c>
@@ -6739,7 +6804,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -6768,7 +6833,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>192</v>
       </c>
@@ -6787,7 +6852,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>188</v>
       </c>
@@ -6806,7 +6871,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>193</v>
       </c>
@@ -6825,7 +6890,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -6844,7 +6909,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>191</v>
       </c>
@@ -6863,7 +6928,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6882,7 +6947,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -6901,7 +6966,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>187</v>
       </c>
@@ -6926,7 +6991,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
@@ -6945,7 +7010,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>194</v>
       </c>
@@ -6964,7 +7029,7 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -6983,7 +7048,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>216</v>
       </c>
@@ -7002,7 +7067,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -7021,7 +7086,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
@@ -7048,7 +7113,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
@@ -7073,7 +7138,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
@@ -7100,9 +7165,9 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>27</v>
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>17</v>
@@ -7119,7 +7184,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>189</v>
       </c>
@@ -7144,7 +7209,7 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>31</v>
       </c>
@@ -7163,7 +7228,7 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>32</v>
       </c>
@@ -7182,7 +7247,7 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>33</v>
       </c>
@@ -7207,7 +7272,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
@@ -7226,7 +7291,7 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>190</v>
       </c>
@@ -7253,7 +7318,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
@@ -7272,7 +7337,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
@@ -7291,7 +7356,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>39</v>
       </c>
@@ -7310,26 +7375,28 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="1:13" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>41</v>
       </c>
@@ -7348,7 +7415,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
@@ -7367,9 +7434,9 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>43</v>
+    <row r="32" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>30</v>
@@ -7386,7 +7453,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>44</v>
       </c>
@@ -7411,7 +7478,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>182</v>
       </c>
@@ -7432,7 +7499,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>183</v>
       </c>
@@ -7451,7 +7518,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>47</v>
       </c>
@@ -7470,7 +7537,7 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>48</v>
       </c>
@@ -7489,7 +7556,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>184</v>
       </c>
@@ -7508,7 +7575,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>185</v>
       </c>
@@ -7535,7 +7602,7 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>51</v>
       </c>
@@ -7554,9 +7621,9 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
     </row>
-    <row r="41" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>52</v>
+    <row r="41" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>30</v>
@@ -7573,7 +7640,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>56</v>
       </c>
@@ -7592,7 +7659,7 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>186</v>
       </c>
@@ -7611,26 +7678,26 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:13" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-    </row>
-    <row r="45" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+    </row>
+    <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>238</v>
       </c>
@@ -7649,7 +7716,7 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>113</v>
       </c>
@@ -7668,7 +7735,7 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>114</v>
       </c>
@@ -7687,7 +7754,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>115</v>
       </c>
@@ -7706,7 +7773,7 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>116</v>
       </c>
@@ -7725,7 +7792,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>117</v>
       </c>
@@ -7744,7 +7811,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
     </row>
-    <row r="51" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>118</v>
       </c>
@@ -7763,7 +7830,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
     </row>
-    <row r="52" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>119</v>
       </c>
@@ -7782,7 +7849,7 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
     </row>
-    <row r="53" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>120</v>
       </c>
@@ -7801,7 +7868,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
     </row>
-    <row r="54" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>121</v>
       </c>
@@ -7820,7 +7887,7 @@
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
     </row>
-    <row r="55" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>122</v>
       </c>
@@ -7839,7 +7906,7 @@
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
     </row>
-    <row r="56" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>123</v>
       </c>
@@ -7858,7 +7925,7 @@
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
-    <row r="57" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>124</v>
       </c>
@@ -7877,7 +7944,7 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
     </row>
-    <row r="58" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>125</v>
       </c>
@@ -7896,28 +7963,30 @@
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
     </row>
-    <row r="59" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="17" t="s">
+    <row r="59" spans="1:13" s="29" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-    </row>
-    <row r="60" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>127</v>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+    </row>
+    <row r="60" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>55</v>
@@ -7938,9 +8007,9 @@
       </c>
       <c r="M60" s="18"/>
     </row>
-    <row r="61" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>128</v>
+    <row r="61" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>55</v>
@@ -7951,15 +8020,17 @@
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="H61" s="18">
+        <v>320</v>
+      </c>
       <c r="J61" s="18"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
     </row>
-    <row r="62" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>129</v>
+    <row r="62" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>55</v>
